--- a/data/퀄모의고사 2주차/채점결과/중계/박동현.xlsx
+++ b/data/퀄모의고사 2주차/채점결과/중계/박동현.xlsx
@@ -43,7 +43,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="thin">
         <color rgb="00000000"/>
       </left>
       <right style="thin">
